--- a/scraping/file_parser/excel_parser/test_annex10_data/annex-10-2015.xlsx
+++ b/scraping/file_parser/excel_parser/test_annex10_data/annex-10-2015.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr saveExternalLinkValues="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elio\Documents\GitHub\MediSeeUU\scraping\file_parser\excel_parser\test_annex10_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4410D16F-7A4A-489B-B1B0-FF6A284AD264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="9510" windowHeight="5955"/>
+    <workbookView xWindow="-1668" yWindow="12852" windowWidth="26136" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positive opinions" sheetId="13" r:id="rId1"/>
@@ -13,9 +19,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Positive opinions'!$L$15:$L$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Positive opinions'!$A$1:$M$12</definedName>
     <definedName name="Date" localSheetId="2">'Withdrawn applications'!$A$6</definedName>
     <definedName name="Head" localSheetId="2">'Withdrawn applications'!$A$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Positive opinions'!$A$1:$M$12</definedName>
   </definedNames>
   <calcPr calcId="114210" calcOnSave="0"/>
 </workbook>
@@ -1779,7 +1785,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmm\ yyyy"/>
   </numFmts>
@@ -2357,31 +2363,31 @@
     <cellStyle name="Accent4" xfId="37" builtinId="41" hidden="1"/>
     <cellStyle name="Accent5" xfId="41" builtinId="45" hidden="1"/>
     <cellStyle name="Accent6" xfId="45" builtinId="49" hidden="1"/>
-    <cellStyle name="Bad" xfId="17" builtinId="27" hidden="1"/>
-    <cellStyle name="Body text (Agency)" xfId="1"/>
-    <cellStyle name="Explanatory Text" xfId="23" builtinId="53" hidden="1"/>
-    <cellStyle name="Explanatory text (Agency)" xfId="2"/>
-    <cellStyle name="Good" xfId="16" builtinId="26" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16" hidden="1"/>
-    <cellStyle name="Heading 1 (Agency)" xfId="3"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17" hidden="1"/>
-    <cellStyle name="Heading 2 (Agency)" xfId="4"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18" hidden="1"/>
-    <cellStyle name="Heading 3 (Agency)" xfId="5"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19" hidden="1"/>
-    <cellStyle name="Heading 4 (Agency)" xfId="6"/>
-    <cellStyle name="Heading 5 (Agency)" xfId="7"/>
-    <cellStyle name="Input" xfId="19" builtinId="20" hidden="1"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24" hidden="1"/>
-    <cellStyle name="Neutral" xfId="18" builtinId="28" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="22" builtinId="10" hidden="1"/>
-    <cellStyle name="Ref. (Agency)" xfId="8"/>
-    <cellStyle name="Subtitle (Agency)" xfId="9"/>
-    <cellStyle name="Title" xfId="11" builtinId="15" hidden="1"/>
-    <cellStyle name="Title (Agency)" xfId="10"/>
-    <cellStyle name="Total" xfId="24" builtinId="25" hidden="1"/>
-    <cellStyle name="Warning Text" xfId="21" builtinId="11" hidden="1"/>
+    <cellStyle name="Body text (Agency)" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Explanatory text (Agency)" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Gekoppelde cel" xfId="20" builtinId="24" hidden="1"/>
+    <cellStyle name="Goed" xfId="16" builtinId="26" hidden="1"/>
+    <cellStyle name="Heading 1 (Agency)" xfId="3" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 2 (Agency)" xfId="4" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Heading 3 (Agency)" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 4 (Agency)" xfId="6" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Heading 5 (Agency)" xfId="7" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Invoer" xfId="19" builtinId="20" hidden="1"/>
+    <cellStyle name="Kop 1" xfId="12" builtinId="16" hidden="1"/>
+    <cellStyle name="Kop 2" xfId="13" builtinId="17" hidden="1"/>
+    <cellStyle name="Kop 3" xfId="14" builtinId="18" hidden="1"/>
+    <cellStyle name="Kop 4" xfId="15" builtinId="19" hidden="1"/>
+    <cellStyle name="Neutraal" xfId="18" builtinId="28" hidden="1"/>
+    <cellStyle name="Notitie" xfId="22" builtinId="10" hidden="1"/>
+    <cellStyle name="Ongeldig" xfId="17" builtinId="27" hidden="1"/>
+    <cellStyle name="Ref. (Agency)" xfId="8" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Subtitle (Agency)" xfId="9" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Titel" xfId="11" builtinId="15" hidden="1"/>
+    <cellStyle name="Title (Agency)" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Totaal" xfId="24" builtinId="25" hidden="1"/>
+    <cellStyle name="Verklarende tekst" xfId="23" builtinId="53" hidden="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="21" builtinId="11" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2457,6 +2463,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2478,7 +2487,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11306" name="Picture 1"/>
+        <xdr:cNvPr id="11306" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A2C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2546,22 +2561,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11307" name="Group 2"/>
+        <xdr:cNvPr id="11307" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B2C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13887450" y="66675"/>
-          <a:ext cx="3495675" cy="542925"/>
+          <a:off x="13891260" y="68580"/>
+          <a:ext cx="3497580" cy="548640"/>
           <a:chOff x="712" y="7"/>
           <a:chExt cx="367" cy="57"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Text Box 3"/>
+          <xdr:cNvPr id="8" name="Text Box 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2763,7 +2790,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Text Box 4"/>
+          <xdr:cNvPr id="9" name="Text Box 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2834,7 +2867,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="11310" name="Picture 5"/>
+          <xdr:cNvPr id="11310" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E2C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -2908,7 +2947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2976,22 +3021,34 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13896975" y="66675"/>
-          <a:ext cx="3495675" cy="542925"/>
+          <a:off x="13898880" y="68580"/>
+          <a:ext cx="3497580" cy="548640"/>
           <a:chOff x="712" y="7"/>
           <a:chExt cx="367" cy="57"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 3"/>
+          <xdr:cNvPr id="4" name="Text Box 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3193,7 +3250,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 4"/>
+          <xdr:cNvPr id="5" name="Text Box 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3264,7 +3327,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5"/>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -3338,7 +3407,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3406,7 +3481,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Group 2"/>
+        <xdr:cNvPr id="3" name="Group 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3421,7 +3502,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 3"/>
+          <xdr:cNvPr id="4" name="Text Box 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3623,7 +3710,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="" fLocksText="0">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Text Box 4"/>
+          <xdr:cNvPr id="5" name="Text Box 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3694,7 +3787,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="Picture 5"/>
+          <xdr:cNvPr id="6" name="Picture 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
           </xdr:cNvPicPr>
@@ -3752,7 +3851,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3794,7 +3893,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3827,9 +3926,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3862,6 +3978,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4037,14 +4170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="14" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8715,7 +8848,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L15:L107"/>
+  <autoFilter ref="L15:L107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.15748031496062992" bottom="0.15748031496062992" header="0.15748031496062992" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
@@ -8727,7 +8860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9247,7 +9380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A6:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
